--- a/실무_엑셀_예제_파일/Chapter08/08-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter08/08-002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A616C7B-0CDB-4A3F-9BAE-B5C6E5B48B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87778A90-1B90-4B01-BF5D-C07ACCA39E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="732" windowWidth="18012" windowHeight="13788" xr2:uid="{57FEA6E6-8E85-4A83-8E69-E1EF772522FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{57FEA6E6-8E85-4A83-8E69-E1EF772522FC}"/>
   </bookViews>
   <sheets>
     <sheet name="꺾은선" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">누적막대!$B$4:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">원형!$B$4:$C$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -303,7 +294,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0,"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,26 +484,26 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -528,6 +525,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3301BF"/>
+      <color rgb="FFFF5D5D"/>
+      <color rgb="FFFF2929"/>
       <color rgb="FFA61E1E"/>
     </mruColors>
   </colors>
@@ -542,10 +542,5973 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>꺾은선!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업1팀</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-87F9-49D7-8ECE-5680037E60AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4345725522167102E-2"/>
+                  <c:y val="-6.2041580947870663E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-87F9-49D7-8ECE-5680037E60AF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>꺾은선!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1분기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2분기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3분기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4분기(예상)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>꺾은선!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87F9-49D7-8ECE-5680037E60AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>꺾은선!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업2팀</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-87F9-49D7-8ECE-5680037E60AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>꺾은선!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1분기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2분기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3분기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4분기(예상)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>꺾은선!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87F9-49D7-8ECE-5680037E60AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>꺾은선!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>영업3팀</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-87F9-49D7-8ECE-5680037E60AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>꺾은선!$C$5:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1분기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2분기</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3분기</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4분기(예상)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>꺾은선!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-87F9-49D7-8ECE-5680037E60AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="845502176"/>
+        <c:axId val="845487296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="845502176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845487296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845487296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845502176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>세로막대!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>인원</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CA89-4B4E-BCE5-D15F90DBB878}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CA89-4B4E-BCE5-D15F90DBB878}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CA89-4B4E-BCE5-D15F90DBB878}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-CA89-4B4E-BCE5-D15F90DBB878}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CA89-4B4E-BCE5-D15F90DBB878}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CA89-4B4E-BCE5-D15F90DBB878}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>세로막대!$C$5:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>서울특별시</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>경기도</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>광주광역시</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>경상남도</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>인천광역시</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>세로막대!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA89-4B4E-BCE5-D15F90DBB878}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="845508416"/>
+        <c:axId val="845509376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="845508416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845509376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845509376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845508416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>가로막대!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>인원</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF2929"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-783A-45F6-BA00-0DAE04A7D52F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF5D5D"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-783A-45F6-BA00-0DAE04A7D52F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>가로막대!$C$5:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>서울특별시</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>경기도</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>광주광역시</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>경상남도</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>인천광역시</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>부산광역시</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>대구광역시</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>충청남도</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>대전광역시</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>경상북도</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>가로막대!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-783A-45F6-BA00-0DAE04A7D52F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:axId val="845400416"/>
+        <c:axId val="845404256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="845400416"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845404256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845404256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845400416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>누적막대!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>샌드위치</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>누적막대!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>누적막대!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>572000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>428000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E626-4C3C-BA82-A622192549A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>누적막대!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>생과일주스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>누적막대!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>누적막대!$C$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194677.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>427000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E626-4C3C-BA82-A622192549A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>누적막대!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>허브티</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>누적막대!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>누적막대!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>316800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>429000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E626-4C3C-BA82-A622192549A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>누적막대!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>핫초코</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>누적막대!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>누적막대!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>378100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E626-4C3C-BA82-A622192549A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>누적막대!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>카페라떼</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>누적막대!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>누적막대!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>428000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>364000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>425880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>639200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>517400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E626-4C3C-BA82-A622192549A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>누적막대!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>아메리카노</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>누적막대!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>누적막대!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0,</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>435072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>972000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>827000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>847200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E626-4C3C-BA82-A622192549A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="845459456"/>
+        <c:axId val="845455616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="845459456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845455616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845455616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845459456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B1B7-491B-A2CC-0FBEC69C3675}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B1B7-491B-A2CC-0FBEC69C3675}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B1B7-491B-A2CC-0FBEC69C3675}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B1B7-491B-A2CC-0FBEC69C3675}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.8437445319335085E-2"/>
+                  <c:y val="9.1987459900845728E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B1B7-491B-A2CC-0FBEC69C3675}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2688976377952755E-2"/>
+                  <c:y val="-6.4788568095654711E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B1B7-491B-A2CC-0FBEC69C3675}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>원형!$E$5:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>경기도</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>서울특별시</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>부산광역시</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>경상남도</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>기타</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>원형!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13530519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9550227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3359527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3322373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21907070</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1B7-491B-A2CC-0FBEC69C3675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234293</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776FC2EE-1882-09CA-0133-96A4C4C62EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133570</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>197944</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803B5381-EA4D-BE88-6F0A-122994975CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516759</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4379</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E587133-A276-6FE1-0BBB-8725866A3224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4217276" y="74448"/>
+          <a:ext cx="2794000" cy="293414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>년 지역별 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대학교 합격자 수</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>315057</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>271095</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>169985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3169CB-66D2-842E-B0EA-D98AA4771E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187739</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585E86C4-8979-9082-BF08-5B723CB94388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168518</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124557</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FA5F6-CA33-335B-C996-3E7ED0BC9EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="회색조">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -553,34 +6516,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="F8F8F8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="DDDDDD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="969696"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="808080"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4D4D4D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="919191"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -841,17 +6804,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD82CA-28CF-43EC-8E24-F6A4AE4544C4}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" customWidth="1"/>
-    <col min="3" max="6" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.9140625" customWidth="1"/>
+    <col min="3" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1"/>
-    <row r="2" spans="2:6" ht="23.4" customHeight="1">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
@@ -860,13 +6825,13 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="2:6" ht="8.4" customHeight="1"/>
-    <row r="4" spans="2:6">
+    <row r="3" spans="2:6" ht="8.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="2" customFormat="1">
+    <row r="5" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -881,7 +6846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -898,7 +6863,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -915,7 +6880,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -939,6 +6904,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -946,24 +6912,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7CB09-4CC0-4EE0-95C3-EE88A16BE18C}">
   <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="4" width="12.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="4" width="12.4140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1"/>
-    <row r="2" spans="2:4" ht="22.8" customHeight="1">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="22.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="2:4" ht="9.6" customHeight="1"/>
-    <row r="4" spans="2:4">
+    <row r="3" spans="2:4" ht="9.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -974,7 +6942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -985,7 +6953,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -996,7 +6964,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -1007,7 +6975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1018,7 +6986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1035,6 +7003,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1042,24 +7011,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745EAF04-3134-4842-8793-1911EAC719F1}">
   <dimension ref="B1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="4" width="12.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="4" width="12.4140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1"/>
-    <row r="2" spans="2:4" ht="22.8" customHeight="1">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="22.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="2:4" ht="9.6" customHeight="1"/>
-    <row r="4" spans="2:4">
+    <row r="3" spans="2:4" ht="9.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +7041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -1081,7 +7052,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -1092,7 +7063,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -1103,7 +7074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -1114,7 +7085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -1125,7 +7096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -1136,7 +7107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -1147,7 +7118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1158,7 +7129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -1169,7 +7140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -1180,7 +7151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -1191,7 +7162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -1202,7 +7173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -1213,7 +7184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="5">
         <v>14</v>
       </c>
@@ -1224,7 +7195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -1235,7 +7206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="5">
         <v>16</v>
       </c>
@@ -1246,7 +7217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="5">
         <v>17</v>
       </c>
@@ -1263,6 +7234,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1270,16 +7242,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C7E3-C2DA-420C-967D-E36ED6B9778D}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="9" width="11.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="22.2" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:9" ht="27.6" customHeight="1">
+    <row r="1" spans="2:9" ht="22.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21" t="s">
         <v>60</v>
       </c>
@@ -1291,8 +7265,8 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="2:9" ht="12" customHeight="1"/>
-    <row r="4" spans="2:9" s="8" customFormat="1" ht="19.2" customHeight="1">
+    <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" s="8" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
@@ -1318,163 +7292,163 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.2" customHeight="1">
+    <row r="5" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="22">
         <v>97200</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="22">
         <v>88800</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="22">
         <v>71928</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="22">
         <v>95904</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="22">
         <v>294600</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="22">
         <v>572000</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="22">
         <v>428000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.2" customHeight="1">
+    <row r="6" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="22">
         <v>280000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="22">
         <v>192750</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="22">
         <v>158055</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="22">
         <v>194677.5</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="22">
         <v>212250</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="22">
         <v>427000</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="22">
         <v>225000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.2" customHeight="1">
+    <row r="7" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="22">
         <v>175000</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="22">
         <v>312800</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="22">
         <v>225216</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="22">
         <v>369104</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="22">
         <v>316800</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="22">
         <v>323200</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="22">
         <v>429000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.2" customHeight="1">
+    <row r="8" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="22">
         <v>378100</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="22">
         <v>273600</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="22">
         <v>232560</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="22">
         <v>281808</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="22">
         <v>363850</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="22">
         <v>272000</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="22">
         <v>453150</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.2" customHeight="1">
+    <row r="9" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="22">
         <v>428000</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="22">
         <v>364000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="22">
         <v>327600</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="22">
         <v>425880</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="22">
         <v>329000</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="22">
         <v>639200</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="22">
         <v>517400</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.2" customHeight="1">
+    <row r="10" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="22">
         <v>1120000</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="22">
         <v>494400</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="22">
         <v>435072</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="22">
         <v>435072</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="22">
         <v>972000</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="22">
         <v>827000</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="22">
         <v>847200</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.2" customHeight="1">
+    <row r="11" spans="2:9" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
@@ -1513,6 +7487,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1520,30 +7495,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6F2519-906A-4D35-BF41-309C6CF66D9E}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1"/>
-    <row r="2" spans="2:6" ht="25.2" customHeight="1">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="2:6" ht="10.8" customHeight="1">
+    <row r="3" spans="2:6" ht="10.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="14" t="s">
         <v>67</v>
       </c>
@@ -1557,7 +7534,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1567,9 +7544,12 @@
       <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="17">
+        <f>C5</f>
+        <v>13530519</v>
+      </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
@@ -1579,9 +7559,12 @@
       <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F8" si="0">C6</f>
+        <v>9550227</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>23</v>
       </c>
@@ -1591,9 +7574,12 @@
       <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>3359527</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
@@ -1603,9 +7589,12 @@
       <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>3322373</v>
+      </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
@@ -1615,9 +7604,12 @@
       <c r="E9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <f>SUM(C9:C21)</f>
+        <v>21907070</v>
+      </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +7617,7 @@
         <v>2630254</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +7625,7 @@
         <v>2393626</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
@@ -1641,7 +7633,7 @@
         <v>2118183</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
@@ -1649,7 +7641,7 @@
         <v>1838353</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +7649,7 @@
         <v>1792476</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
@@ -1665,7 +7657,7 @@
         <v>1597179</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
@@ -1673,7 +7665,7 @@
         <v>1536270</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
@@ -1681,7 +7673,7 @@
         <v>1454679</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
@@ -1689,7 +7681,7 @@
         <v>1441970</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="16" t="s">
         <v>40</v>
       </c>
@@ -1697,7 +7689,7 @@
         <v>1124459</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="16" t="s">
         <v>63</v>
       </c>
@@ -1705,7 +7697,7 @@
         <v>675883</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="16" t="s">
         <v>62</v>
       </c>
@@ -1713,8 +7705,8 @@
         <v>365309</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="12" customHeight="1"/>
-    <row r="23" spans="2:3">
+    <row r="22" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="18" t="s">
         <v>64</v>
       </c>
@@ -1733,5 +7725,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>